--- a/output.xlsx
+++ b/output.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="347">
-  <si>
-    <t>1/26/2024</t>
-  </si>
-  <si>
-    <t>07:11 AM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="528">
+  <si>
+    <t>2/2/2024</t>
+  </si>
+  <si>
+    <t>11:13 AM</t>
   </si>
   <si>
     <t>AM</t>
@@ -25,1040 +25,1584 @@
     <t>Home Depot Store Support, Inc.</t>
   </si>
   <si>
-    <t>3407</t>
-  </si>
-  <si>
-    <t>NORTH CONWAY</t>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>CICERO</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>268426621</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Creating a new WO according to the note placed by the store  under WO # 267046386. Store Note: "This work order was closed out, but is not completed. The snow piles in front of the fire hydrant behind receiving needs to be cleared." / POSSIBLE RECALL FROM TN #267046386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete </t>
+  </si>
+  <si>
+    <t>KATHLEEN CONLEY</t>
+  </si>
+  <si>
+    <t>2/3/2024</t>
+  </si>
+  <si>
+    <t>05:22 AM</t>
+  </si>
+  <si>
+    <t>2684</t>
+  </si>
+  <si>
+    <t>WORCESTER</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>268496033</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / NOASM Keith calls in to request to have the parking lot and perimeter salted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completed </t>
+  </si>
+  <si>
+    <t>Keith Metibier/ NOSAM/ 501</t>
+  </si>
+  <si>
+    <t>2/5/2024</t>
+  </si>
+  <si>
+    <t>08:19 PM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>4286</t>
+  </si>
+  <si>
+    <t>JOHNSTON</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>268679134</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Cathy Busch CXM 502 called in because they have snow at the middle of the parking lot that need to be removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no need to remove small piles see attached </t>
+  </si>
+  <si>
+    <t>Cathy Busch CXM 502</t>
+  </si>
+  <si>
+    <t>2/6/2024</t>
+  </si>
+  <si>
+    <t>08:11 AM</t>
+  </si>
+  <si>
+    <t>2615</t>
+  </si>
+  <si>
+    <t>SEEKONK</t>
+  </si>
+  <si>
+    <t>268703854</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Property manager Richard Jaffe reports the snow is on a lift station and need to be removed as soon as possible.</t>
+  </si>
+  <si>
+    <t>SONCERRAY HILLIARD</t>
+  </si>
+  <si>
+    <t>2/7/2024</t>
+  </si>
+  <si>
+    <t>12:34 PM</t>
+  </si>
+  <si>
+    <t>3482</t>
+  </si>
+  <si>
+    <t>MANCHESTER</t>
   </si>
   <si>
     <t>NH</t>
   </si>
   <si>
-    <t>267631147</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Glan Noval/EXt.503/ASM calling to have the parking lot sanded and salted since it is really icy/emergency</t>
-  </si>
-  <si>
-    <t>treated</t>
-  </si>
-  <si>
-    <t>Glan Noval/EXt.503/ASM</t>
-  </si>
-  <si>
-    <t>07:41 AM</t>
-  </si>
-  <si>
-    <t>3403</t>
-  </si>
-  <si>
-    <t>HOOKSETT</t>
-  </si>
-  <si>
-    <t>267632050</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Natalie T/ CXM/ 501 called to create WO for snow removal and salting</t>
+    <t>268810901</t>
+  </si>
+  <si>
+    <t>MOVE/ADD/CHANGE / ALL MOVE/ADD/CHANGE REQUESTS REQUIRE RDO APPROVAL: I UNDERSTAND / ENTER THE EMAIL OF THE DM WHO HAS GIVEN VERBAL APPROVAL OF THIS MAC REQUEST: NA / IS THIS REQUEST IN RELATION TO A PAST OR UPCOMING STORE WALK?:</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>JOSEPH MCGOVERN</t>
+  </si>
+  <si>
+    <t>2/11/2024</t>
+  </si>
+  <si>
+    <t>08:03 AM</t>
+  </si>
+  <si>
+    <t>2414</t>
+  </si>
+  <si>
+    <t>BANGOR</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>269077668</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / need the parking lot salted</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>JAMES HENRY</t>
+  </si>
+  <si>
+    <t>2/12/2024</t>
+  </si>
+  <si>
+    <t>12:08 PM</t>
+  </si>
+  <si>
+    <t>8456</t>
+  </si>
+  <si>
+    <t>HAWTHORNE</t>
+  </si>
+  <si>
+    <t>269142952</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Requesting that the parking lot be salted tonight, Feb 12th. as we are expecting a snow storm at approximately 2am in the morning</t>
+  </si>
+  <si>
+    <t>Proactive work order is not needed, we are aware of expected snow and will service site as needed.</t>
+  </si>
+  <si>
+    <t>NEVILLE LEWIS</t>
+  </si>
+  <si>
+    <t>2/13/2024</t>
+  </si>
+  <si>
+    <t>04:14 AM</t>
+  </si>
+  <si>
+    <t>269193630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUEST SERVICE / 
+Evin W./MNR/Ext.503 called because they need someone to salt the snow on the parking lot (about 2 in.)</t>
+  </si>
+  <si>
+    <t>Evin W./MNR/Ext.503</t>
+  </si>
+  <si>
+    <t>04:58 AM</t>
+  </si>
+  <si>
+    <t>4279</t>
+  </si>
+  <si>
+    <t>COVENTRY</t>
+  </si>
+  <si>
+    <t>269194714</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / ice melt/plow</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>Jeffrey Kawa</t>
+  </si>
+  <si>
+    <t>05:51 AM</t>
+  </si>
+  <si>
+    <t>6235</t>
+  </si>
+  <si>
+    <t>SOUTHINGTON</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>269195654</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Kyle Chiss//Ext 501//CXM is requesting for snow plow since there is a storm and the store is about to open in 5 min.</t>
+  </si>
+  <si>
+    <t>Kyle Chiss//Ext 501//CXM</t>
+  </si>
+  <si>
+    <t>06:20 AM</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>MIDDLETOWN</t>
+  </si>
+  <si>
+    <t>269196301</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / currently open for business no snow plow in parking lot. lots of snow coming down need immediate help!</t>
+  </si>
+  <si>
+    <t>KELLON ROBERT</t>
+  </si>
+  <si>
+    <t>06:34 AM</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>STATEN ISLAND</t>
+  </si>
+  <si>
+    <t>269196621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUEST SERVICE / Nick Pereto/502/ASM
+Called in to place WO for snow removal in parking lot, theres about an inch of snow</t>
   </si>
   <si>
     <t>completed</t>
   </si>
   <si>
+    <t>Nick Pereto/502/ASM</t>
+  </si>
+  <si>
+    <t>06:43 AM</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>SHIRLEY</t>
+  </si>
+  <si>
+    <t>269196865</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Lisa ASM is calling to have the parking salted . The entire parking lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa M. ASM 502 </t>
+  </si>
+  <si>
+    <t>06:53 AM</t>
+  </si>
+  <si>
+    <t>6150</t>
+  </si>
+  <si>
+    <t>269197162</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / wanted to report the side walk around the store needs salt. because its getting dangerous for the customers as well as the parking lot and the receiving dock area</t>
+  </si>
+  <si>
+    <t>NICHOLAS JACKSON</t>
+  </si>
+  <si>
+    <t>06:56 AM</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>YONKERS</t>
+  </si>
+  <si>
+    <t>269197252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUEST SERVICE / 
+Kshor. W./ASAM/Ext.501 called because the front and back garden, back of the building they need someone to salt for snow (Three in.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kshor. W./ASAM/Ext.501</t>
+  </si>
+  <si>
+    <t>07:17 AM</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>GLENDALE</t>
+  </si>
+  <si>
+    <t>269198463</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / snow removal from parking lot and dock  area</t>
+  </si>
+  <si>
+    <t>SANDY ST GERMAIN</t>
+  </si>
+  <si>
+    <t>07:20 AM</t>
+  </si>
+  <si>
+    <t>6957</t>
+  </si>
+  <si>
+    <t>BROOKLYN</t>
+  </si>
+  <si>
+    <t>269198559</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Need Snow removal</t>
+  </si>
+  <si>
+    <t>SHARLENE TOLBERT</t>
+  </si>
+  <si>
+    <t>07:32 AM</t>
+  </si>
+  <si>
+    <t>2607</t>
+  </si>
+  <si>
+    <t>MARLBOROUGH</t>
+  </si>
+  <si>
+    <t>269198971</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Just started to snow and is starting to stick to the ground</t>
+  </si>
+  <si>
+    <t>Proactive work order not necessary. Snow just started to stick. Crew will service site as needed.</t>
+  </si>
+  <si>
+    <t>DOUGLAS WARD</t>
+  </si>
+  <si>
+    <t>07:54 AM</t>
+  </si>
+  <si>
+    <t>6207</t>
+  </si>
+  <si>
+    <t>269199881</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Need snow removal from parking lot, all entrances and exits, back or store for receiving trucks.</t>
+  </si>
+  <si>
+    <t>Jason Lacaresse</t>
+  </si>
+  <si>
+    <t>07:56 AM</t>
+  </si>
+  <si>
+    <t>4284</t>
+  </si>
+  <si>
+    <t>WESTERLY</t>
+  </si>
+  <si>
+    <t>269200046</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Peggy Woods//ext 502//ASM  is requesting a snow plow and salting  needed for the exterior perimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peggy Woods//ext 502//ASM </t>
+  </si>
+  <si>
+    <t>08:40 AM</t>
+  </si>
+  <si>
+    <t>6228</t>
+  </si>
+  <si>
+    <t>BLOOMFIELD</t>
+  </si>
+  <si>
+    <t>269205119</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / need someone to come plow immediately</t>
+  </si>
+  <si>
+    <t>JENELLE WILLIAMS</t>
+  </si>
+  <si>
+    <t>10:21 AM</t>
+  </si>
+  <si>
+    <t>6217</t>
+  </si>
+  <si>
+    <t>WALLINGFORD</t>
+  </si>
+  <si>
+    <t>269212949</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Jack Cruz SM ext#500 caller wanted to report they need more hands and they need the front and back of the store cleaned. and snow its falling and its getting worst. please get in contact with a manager on duty once you are done cleaning the store.</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jack Cruz SM ext#500 </t>
+  </si>
+  <si>
+    <t>10:26 AM</t>
+  </si>
+  <si>
+    <t>8466</t>
+  </si>
+  <si>
+    <t>SYOSSET</t>
+  </si>
+  <si>
+    <t>269213638</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Steve Landos, ASM, 501, called to report the street lasayette that belongs to the store's responsibilities, needs to have the snow removed and salted, it goes to the loading dock and they need it removed because there's a truck stuck there now</t>
+  </si>
+  <si>
+    <t>Steve Landos, ASM, 501</t>
+  </si>
+  <si>
+    <t>10:32 AM</t>
+  </si>
+  <si>
+    <t>2613</t>
+  </si>
+  <si>
+    <t>EAST WAREHAM</t>
+  </si>
+  <si>
+    <t>269214082</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / ChadVaillancourt/ASM Called to request service he need the store to be plowed and salted-</t>
+  </si>
+  <si>
+    <t>Crew onsite and checked in on monthly pm. Will be onsite for duration</t>
+  </si>
+  <si>
+    <t>Chad Vaillancourt/ASM/503</t>
+  </si>
+  <si>
+    <t>11:37 AM</t>
+  </si>
+  <si>
+    <t>269219417</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Requesting plow to come back for more snow accumulation. Parking lot, side of store parking lot, back of store receiving.</t>
+  </si>
+  <si>
+    <t>Still onsite and checked into monthly PM. Will scrape it again with the 950.</t>
+  </si>
+  <si>
+    <t>11:41 AM</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>MOHEGAN LAKE</t>
+  </si>
+  <si>
+    <t>269219764</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Oz Rollings, CXM, 501, reports the back of the store needs the snow to be removed and salted as soon as possible</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Oz Rollings, CXM, 501</t>
+  </si>
+  <si>
+    <t>12:27 PM</t>
+  </si>
+  <si>
+    <t>2650</t>
+  </si>
+  <si>
+    <t>ROCKLAND</t>
+  </si>
+  <si>
+    <t>269223655</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / accumulating snow has made parking lot slippery</t>
+  </si>
+  <si>
+    <t>checked in on pm</t>
+  </si>
+  <si>
+    <t>DANIEL WALLS</t>
+  </si>
+  <si>
+    <t>12:47 PM</t>
+  </si>
+  <si>
+    <t>269225778</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / parking lot is slippery, would need salt to be put down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crew still on site salting will happen when snow stops </t>
+  </si>
+  <si>
+    <t>LENA SANTIAGO</t>
+  </si>
+  <si>
+    <t>03:00 PM</t>
+  </si>
+  <si>
+    <t>2672</t>
+  </si>
+  <si>
+    <t>SHREWSBURY</t>
+  </si>
+  <si>
+    <t>269238744</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Mike Pierce/SM/237  Called to create a WO for snow removal and salting in the parking lot area.</t>
+  </si>
+  <si>
+    <t>Mike Pierce/SM/237</t>
+  </si>
+  <si>
+    <t>03:57 PM</t>
+  </si>
+  <si>
+    <t>2673</t>
+  </si>
+  <si>
+    <t>NORTH DARTMOUTH</t>
+  </si>
+  <si>
+    <t>269242711</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Dell ASM called to create a WO to plow and salt the parking lot especially the back area by lumber, it's pretty bad.</t>
+  </si>
+  <si>
+    <t>Dell C ASM 333</t>
+  </si>
+  <si>
+    <t>04:54 PM</t>
+  </si>
+  <si>
+    <t>6229</t>
+  </si>
+  <si>
+    <t>BRISTOL</t>
+  </si>
+  <si>
+    <t>269246713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUEST SERVICE / Snow on the roadside sidewalk was not cleared again. Consistently have to escalate to District/Regional leadership to get snow removal company to complete what is contracted. Need company to clear the roadside sidewalk before being fined by Bristol PD. Past warnings have been documented by Bristol PD.
+Requesting snow removal company to upload pictures after site has been cleared after previous instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Summary: Full crew 28” of snow on municipal walkway </t>
+  </si>
+  <si>
+    <t>JASON MALY</t>
+  </si>
+  <si>
+    <t>06:05 PM</t>
+  </si>
+  <si>
+    <t>6218</t>
+  </si>
+  <si>
+    <t>NEW HARTFORD</t>
+  </si>
+  <si>
+    <t>269250269</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Heavy Ice forming need salt</t>
+  </si>
+  <si>
+    <t>WILLIAM KING</t>
+  </si>
+  <si>
+    <t>06:56 PM</t>
+  </si>
+  <si>
+    <t>2651</t>
+  </si>
+  <si>
+    <t>BELLINGHAM</t>
+  </si>
+  <si>
+    <t>269252509</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Plowing needed along front fire lane of store, side road by garden center (fire lane between building and parking lot) and salt/sanding, due to slush and dropping temps.  Areas of parking lot are already freezing over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site was serviced this afternoon. Will be serviced and salted again at 2am </t>
+  </si>
+  <si>
+    <t>JESSICA RIVERS</t>
+  </si>
+  <si>
+    <t>07:18 PM</t>
+  </si>
+  <si>
+    <t>6209</t>
+  </si>
+  <si>
+    <t>DANBURY</t>
+  </si>
+  <si>
+    <t>269253110</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Morgan CXM called to create a WO to salt the parking lot.</t>
+  </si>
+  <si>
+    <t>Morgan l CXM 501</t>
+  </si>
+  <si>
+    <t>07:39 PM</t>
+  </si>
+  <si>
+    <t>269253605</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / EXTERIOR / SNOW / SNOW REMOVAL ESCALATIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP is going to salt it overnight before store opens. Guys will be onsite by 4ish. 
+</t>
+  </si>
+  <si>
+    <t>MARIO ALAVA</t>
+  </si>
+  <si>
+    <t>07:40 PM</t>
+  </si>
+  <si>
+    <t>269253619</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Parking spaces not plowed.</t>
+  </si>
+  <si>
+    <t>Parking spaces are plowed after close and will be cleared before opening.</t>
+  </si>
+  <si>
+    <t>ROBIN HOCKHOUSEN</t>
+  </si>
+  <si>
+    <t>1271</t>
+  </si>
+  <si>
+    <t>BREWSTER</t>
+  </si>
+  <si>
+    <t>269253649</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / David/ Closing CXM/503 called in to request WO for snow removal in parking.</t>
+  </si>
+  <si>
+    <t>David/ Closing CXM/503</t>
+  </si>
+  <si>
+    <t>08:06 PM</t>
+  </si>
+  <si>
+    <t>6223</t>
+  </si>
+  <si>
+    <t>EAST HAVEN</t>
+  </si>
+  <si>
+    <t>269254218</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Samantha Oberrida/ASM/501 called in to get a new wo since they need the parking lot to be salted since it is very icy</t>
+  </si>
+  <si>
+    <t>Samantha Oberrida/ASM/501</t>
+  </si>
+  <si>
+    <t>08:09 PM</t>
+  </si>
+  <si>
+    <t>2682</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>269254271</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / salt parking lot is icy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salted at 7pm. Will be checked again in the AM
+</t>
+  </si>
+  <si>
+    <t>RUBEN ALFONSO</t>
+  </si>
+  <si>
+    <t>08:21 PM</t>
+  </si>
+  <si>
+    <t>269254557</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Don /Closing CXM/ 501 called in to request WO to melt down the ice in parking lot.</t>
+  </si>
+  <si>
+    <t>Completed. Will be there again overnight before the store opens to salt again</t>
+  </si>
+  <si>
+    <t>Don /Closing CXM/ 501</t>
+  </si>
+  <si>
+    <t>08:50 PM</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>269255117</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / need perimeter and parking lot salted per very icy and dangerous</t>
+  </si>
+  <si>
+    <t>SP was onsite and checked into monthly PM this morning and salted lot.</t>
+  </si>
+  <si>
+    <t>AMANDA CARALLA</t>
+  </si>
+  <si>
+    <t>09:29 PM</t>
+  </si>
+  <si>
+    <t>4878</t>
+  </si>
+  <si>
+    <t>NEW MILFORD</t>
+  </si>
+  <si>
+    <t>269255781</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Need parking lot, front apron, rear of building to be plowed and salted.  Parking lot is vry icy.</t>
+  </si>
+  <si>
+    <t>Kellen Bennett</t>
+  </si>
+  <si>
+    <t>10:11 PM</t>
+  </si>
+  <si>
+    <t>269256420</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / James Field/MASM/502 called in because they would like to have salted the parking lot, back and side of the building</t>
+  </si>
+  <si>
+    <t>James Field/MASM/502</t>
+  </si>
+  <si>
+    <t>2/14/2024</t>
+  </si>
+  <si>
+    <t>12:54 AM</t>
+  </si>
+  <si>
+    <t>8958</t>
+  </si>
+  <si>
+    <t>BELLPORT</t>
+  </si>
+  <si>
+    <t>269273034</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Thomas Ceriousta/ NRM/501 called to create WO as parking lot is getting really ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Ceriousta/ NRM/501 </t>
+  </si>
+  <si>
+    <t>02:13 AM</t>
+  </si>
+  <si>
+    <t>269274552</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Chris Sales/NOM/500 wanted a WO to salt the parking lot</t>
+  </si>
+  <si>
+    <t>Work Summary: Cleared remaining snow, salted all well.  Relocating carts and rental trucks immediately after a snow storm would help facilitate better after storm clean up.</t>
+  </si>
+  <si>
+    <t>Chris Sales/NOM/500</t>
+  </si>
+  <si>
+    <t>03:39 AM</t>
+  </si>
+  <si>
+    <t>2671</t>
+  </si>
+  <si>
+    <t>AVON</t>
+  </si>
+  <si>
+    <t>269275680</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Parking lot and around building need salt/sand. Icy conditions</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER GIBSON</t>
+  </si>
+  <si>
+    <t>04:47 AM</t>
+  </si>
+  <si>
+    <t>269276508</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Parking lot is extremely icy. Need salting ASAP. Have already had people fall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site was salted at 4:20am this morning. It will need some traffic and sun to help aid in the process. </t>
+  </si>
+  <si>
+    <t>JASON CURTIS</t>
+  </si>
+  <si>
+    <t>04:49 AM</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>RIVERHEAD</t>
+  </si>
+  <si>
+    <t>269276525</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / In the parking areas for the customers there is Black Ice building up due to drop of temperatures throughout the night. There has been no salting taking place in the parking areas through out the property including the dock areas for the drivers to be able to back up without getting stuck in the ice.</t>
+  </si>
+  <si>
+    <t>Work Summary: From the store and most of the parking lot is dry there are some puddles. The salt truck is here scraping and salting.</t>
+  </si>
+  <si>
+    <t>JUAN SANCHEZ</t>
+  </si>
+  <si>
+    <t>04:51 AM</t>
+  </si>
+  <si>
+    <t>2680</t>
+  </si>
+  <si>
+    <t>PLYMOUTH</t>
+  </si>
+  <si>
+    <t>269276558</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE /  Lisa L./ASAM/Ext.501 called because they need someone to salt the parking  and ice (about 5 in)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa L./ASAM/Ext.501 </t>
+  </si>
+  <si>
+    <t>05:05 AM</t>
+  </si>
+  <si>
+    <t>4551</t>
+  </si>
+  <si>
+    <t>BENNINGTON</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>269276733</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Need salting front and back of building</t>
+  </si>
+  <si>
+    <t>SP is onsite plowing and will salt once that is complete.</t>
+  </si>
+  <si>
+    <t>ROGER COURCHESNE</t>
+  </si>
+  <si>
+    <t>05:12 AM</t>
+  </si>
+  <si>
+    <t>269276853</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Parking lot area and back area is slippery, need to have salt on all areas of the building especially the back for fork trucks to maneuver.</t>
+  </si>
+  <si>
+    <t>Work Summary: salt</t>
+  </si>
+  <si>
+    <t>05:15 AM</t>
+  </si>
+  <si>
+    <t>4501</t>
+  </si>
+  <si>
+    <t>WILLISTON</t>
+  </si>
+  <si>
+    <t>269276881</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Christine Lund/ASM/501 wanted a WO to salt the parking lot</t>
+  </si>
+  <si>
+    <t>SP is on site checked in on monthly, plowing and will salt once complete.</t>
+  </si>
+  <si>
+    <t>Christine Lund/ASM/501</t>
+  </si>
+  <si>
+    <t>05:34 AM</t>
+  </si>
+  <si>
+    <t>6226</t>
+  </si>
+  <si>
+    <t>DERBY</t>
+  </si>
+  <si>
+    <t>269277183</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Eva C/CXM/502 called to create WO for  the parking lot, front and back the store is cover with ice and needs to be salted</t>
+  </si>
+  <si>
+    <t>SP was there already this morning and salted. They'll swing by later today. Salt needs time and sunshine. Photos loaded show existing salt on the ground.</t>
+  </si>
+  <si>
+    <t>Eva C/CXM/502</t>
+  </si>
+  <si>
+    <t>05:42 AM</t>
+  </si>
+  <si>
+    <t>8452</t>
+  </si>
+  <si>
+    <t>HADLEY</t>
+  </si>
+  <si>
+    <t>269277302</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Neviile B./CXM/Ext.501 called because they need someone o salt the parking lot for snow</t>
+  </si>
+  <si>
+    <t>Neviile B./CXM/Ext.501</t>
+  </si>
+  <si>
+    <t>05:57 AM</t>
+  </si>
+  <si>
+    <t>269277587</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Frank Giorno//ext 503//CXM  is requesting for the exterior perimeter to be salted since it is Icy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Giorno//ext 503//CXM </t>
+  </si>
+  <si>
+    <t>06:08 AM</t>
+  </si>
+  <si>
+    <t>2677</t>
+  </si>
+  <si>
+    <t>TAUNTON</t>
+  </si>
+  <si>
+    <t>269277779</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / parking lot needs to be salted the parking lot is very icy and can be a potential safety issue.</t>
+  </si>
+  <si>
+    <t>Site was salted this morning, SP checked into monthly PM. Please allow time for salt to work.</t>
+  </si>
+  <si>
+    <t>SCOTT HORTON</t>
+  </si>
+  <si>
+    <t>06:12 AM</t>
+  </si>
+  <si>
+    <t>6242</t>
+  </si>
+  <si>
+    <t>STAMFORD</t>
+  </si>
+  <si>
+    <t>269277886</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Sal ASM is calling to have his entire parking lot salted</t>
+  </si>
+  <si>
+    <t>Sal C. ASM 100</t>
+  </si>
+  <si>
+    <t>06:21 AM</t>
+  </si>
+  <si>
+    <t>6105</t>
+  </si>
+  <si>
+    <t>LEVITTOWN</t>
+  </si>
+  <si>
+    <t>269278079</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Icy conditions and black ice in the parking lot needs salting</t>
+  </si>
+  <si>
+    <t>PATRICIA COSENTINO</t>
+  </si>
+  <si>
+    <t>06:41 AM</t>
+  </si>
+  <si>
+    <t>6233</t>
+  </si>
+  <si>
+    <t>269278532</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Mary jane cxm is calling to have her entire parking lot salted and also the back pad</t>
+  </si>
+  <si>
+    <t>Mary Jane C. CXM 501</t>
+  </si>
+  <si>
+    <t>269278919</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Eva CXM is calling to have the back part of the store plowed and the entire parking lot salted .</t>
+  </si>
+  <si>
+    <t>Eva S. CXM 502</t>
+  </si>
+  <si>
+    <t>07:02 AM</t>
+  </si>
+  <si>
+    <t>269279078</t>
+  </si>
+  <si>
+    <t>PLEASE STATE THE REASON FOR YOUR MAC REQUEST.: need snow removed from dock area / PLEASE PROVIDE SPECIFIC DETAILS RELATED TO THIS PROJECT THAT WILL HELP IN APPROPRIATELY EXPENSING THE WORK THAT IS NEEDED. (EX: RESET PROJECT NAME, WAYFINDING PROJECT NAME, ISE/MLX PROJECT NUMBER, ETC.): not a project, need snow removal / MOVE/ADD/CHANGE REQUESTS CAN TAKE UP TO 30 DAYS TO COMPLETE UPON APPROVAL FROM YOUR RDO. THE BUILDING SERVICES DIVISIONAL SUPPORT TEAM WILL REACH OUT TO THE RDO FOR APPROVAL ONCE THE VENDORS QUOTE HAS BEEN SUBMITTED. PLEASE CHECK SERVICE REQUEST COMMENTS FOR STATUS UPDATES: I UNDERSTAND / Snow at dock and in front of compactor needs to be removed immediately as we are scheduled for a swap out of the compactor today</t>
+  </si>
+  <si>
+    <t>MATTHEW MAROTZ</t>
+  </si>
+  <si>
+    <t>07:16 AM</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>JERICHO</t>
+  </si>
+  <si>
+    <t>269279428</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Nick Zachira/ASM/377 wanted a WO to salt the parking lot</t>
+  </si>
+  <si>
+    <t>Nick Zachira/ASM/377</t>
+  </si>
+  <si>
+    <t>07:19 AM</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>CORAM</t>
+  </si>
+  <si>
+    <t>269279619</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Lisa Lucante/Store Manager/502 called to create WO to salt the parking lot as is cover of ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa Lucante/Store Manager/502 </t>
+  </si>
+  <si>
+    <t>07:44 AM</t>
+  </si>
+  <si>
+    <t>6213</t>
+  </si>
+  <si>
+    <t>BRIDGEPORT</t>
+  </si>
+  <si>
+    <t>269280589</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Jessica Sospez /CXM/501 called to create WO to salt the parking lot, it was already salted  but there are spots still cover cover of ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jessica Sospez /CXM/501 </t>
+  </si>
+  <si>
+    <t>07:45 AM</t>
+  </si>
+  <si>
+    <t>269280610</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Wayne Susa/CXM/503 wanted a WO to salt the parking lot</t>
+  </si>
+  <si>
+    <t>Wayne Susa/CXM/503</t>
+  </si>
+  <si>
+    <t>08:01 AM</t>
+  </si>
+  <si>
+    <t>269281170</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Heidi Granoth/ ASM503 called to create WO to salt the parking lot and around the building as is cover of ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heidi Granoth/ ASM503 </t>
+  </si>
+  <si>
+    <t>08:17 AM</t>
+  </si>
+  <si>
+    <t>269281789</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Lisamarie Halliday / ASM / 501 called to request a WO for the parking lot perimeter, front and back of the building salted.</t>
+  </si>
+  <si>
+    <t>Lisamarie Halliday / SASM / 503</t>
+  </si>
+  <si>
+    <t>09:06 AM</t>
+  </si>
+  <si>
+    <t>269284161</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE /  Maryjane DecatiffCXM/501 Called to create a WO since they need the snow removal in the front apron, back and all the surrounding of the store more closer to the building.</t>
+  </si>
+  <si>
+    <t>Mariela Espinoza</t>
+  </si>
+  <si>
+    <t>09:50 AM</t>
+  </si>
+  <si>
+    <t>269289823</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Need ice melt dropped in parking lot. Extremely icy. Thank you.</t>
+  </si>
+  <si>
+    <t>JAMES CORNISH</t>
+  </si>
+  <si>
+    <t>10:25 AM</t>
+  </si>
+  <si>
+    <t>269292204</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / This is the Third time today I'm calling putting it in for them to come and plow our back lot and salt the entire parking lot this is important due to slippery surfaces.</t>
+  </si>
+  <si>
+    <t>completed.</t>
+  </si>
+  <si>
+    <t>EVAMARIE ST PIERRE</t>
+  </si>
+  <si>
+    <t>10:46 AM</t>
+  </si>
+  <si>
+    <t>2609</t>
+  </si>
+  <si>
+    <t>MANSFIELD</t>
+  </si>
+  <si>
+    <t>269293590</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Parking lot has spots of ice. Could we please get someone out to lay down ice melt?</t>
+  </si>
+  <si>
     <t>BulkPMDispatcher</t>
   </si>
   <si>
-    <t>08:24 AM</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>BIDDEFORD</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>267633910</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Shawn chapman/OPM/502 called to request that the parking lot be salted, there is a lot of ice and it is dangerous.</t>
-  </si>
-  <si>
-    <t>Shawn chapman/OPM/502</t>
-  </si>
-  <si>
-    <t>08:25 AM</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>PORTLAND</t>
-  </si>
-  <si>
-    <t>267633931</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Need salt for parking lot. Freezing rain, temps hovering at 30 degree mark.</t>
-  </si>
-  <si>
-    <t>Crew was onsite at 8am and checked into monthly PM. Please allow time for salt to work.</t>
-  </si>
-  <si>
-    <t>KERRY NOBLE</t>
-  </si>
-  <si>
-    <t>08:42 AM</t>
-  </si>
-  <si>
-    <t>2414</t>
-  </si>
-  <si>
-    <t>BANGOR</t>
-  </si>
-  <si>
-    <t>267634883</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / parking lot needs to be sanded and salted</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>MIRANDA ROBINSON</t>
-  </si>
-  <si>
-    <t>1/25/2024</t>
-  </si>
-  <si>
-    <t>12:00 AM</t>
-  </si>
-  <si>
-    <t>1228</t>
-  </si>
-  <si>
-    <t>CHEEKTOWAGA</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>267635653</t>
+    <t>06:04 PM</t>
+  </si>
+  <si>
+    <t>269323155</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Ana Prisma/CXM/503 called to request a WO to have the snow removed from the back of the store</t>
+  </si>
+  <si>
+    <t>Ana Prisma/CXM/503</t>
+  </si>
+  <si>
+    <t>06:37 PM</t>
+  </si>
+  <si>
+    <t>269325300</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Black ice all over lot, needs to be salted</t>
+  </si>
+  <si>
+    <t>MARCO PASTILHA Phone# 9145937110</t>
+  </si>
+  <si>
+    <t>07:32 PM</t>
+  </si>
+  <si>
+    <t>269326778</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Called by Herod B  / ASM since the Store needs the parking lot to get salted from the ice and pouted .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Herod B  ASM / 502  </t>
+  </si>
+  <si>
+    <t>07:57 PM</t>
+  </si>
+  <si>
+    <t>269327268</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Cristen Farialt/ASM/501 called to request a WO to have the parking lot salted</t>
+  </si>
+  <si>
+    <t>Cristen Farialt/ASM/501</t>
+  </si>
+  <si>
+    <t>2/15/2024</t>
+  </si>
+  <si>
+    <t>06:22 AM</t>
+  </si>
+  <si>
+    <t>269436674</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Parking lot still icy please lay more salt</t>
+  </si>
+  <si>
+    <t>09:44 AM</t>
+  </si>
+  <si>
+    <t>269445184</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Matthew Marotz/OPM called to request service he states the store has black ice in the back and behind the building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treated </t>
+  </si>
+  <si>
+    <t>Matthew Marotz/OPM/501</t>
+  </si>
+  <si>
+    <t>05:27 PM</t>
+  </si>
+  <si>
+    <t>269488786</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Dell Cabril, ASM, 598, reports the back of the store needs to be cleaned and salted since it doesn't get any light and it's hard for the store to get salted</t>
+  </si>
+  <si>
+    <t>Dell Cabril, ASM, 598</t>
+  </si>
+  <si>
+    <t>08:36 PM</t>
+  </si>
+  <si>
+    <t>4502</t>
+  </si>
+  <si>
+    <t>RUTLAND</t>
+  </si>
+  <si>
+    <t>269495318</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">covered under wo 267006748
-</t>
-  </si>
-  <si>
-    <t>1230</t>
-  </si>
-  <si>
-    <t>WILLIAMSVILLE</t>
-  </si>
-  <si>
-    <t>267635658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covered under wo 267006750
-</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>BUFFALO</t>
-  </si>
-  <si>
-    <t>267635659</t>
-  </si>
-  <si>
-    <t>covered under wo 267006749</t>
-  </si>
-  <si>
-    <t>267635660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">completed </t>
-  </si>
-  <si>
-    <t>08:58 AM</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>AUBURN</t>
-  </si>
-  <si>
-    <t>267635732</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Christine Montel/CXM/502 called to request that the snow be plowed and the parking lot be salted, there are about 2 inches of snow and it is accumulating.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">completed service </t>
-  </si>
-  <si>
-    <t>Christine Montel/CXM/502</t>
-  </si>
-  <si>
-    <t>09:42 AM</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>WATERVILLE</t>
-  </si>
-  <si>
-    <t>267640170</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Cris Karen ext#503 OPASM caller wanted to repot they need their parking loot salted they need al the parking loot salted .</t>
-  </si>
-  <si>
-    <t>Cris Karen ext#503 OPASM</t>
-  </si>
-  <si>
-    <t>10:11 AM</t>
-  </si>
-  <si>
-    <t>3406</t>
-  </si>
-  <si>
-    <t>WEST LEBANON</t>
-  </si>
-  <si>
-    <t>267643055</t>
-  </si>
-  <si>
-    <t>MOVE/ADD/CHANGE / ALL MOVE/ADD/CHANGE REQUESTS REQUIRE RDO APPROVAL: I UNDERSTAND / ENTER THE EMAIL OF THE DM WHO HAS GIVEN VERBAL APPROVAL OF THIS MAC REQUEST: jeremy_p_birsky@homedepot.com / IS THIS REQUEST IN RELATION TO A PAST OR UPCOMING STORE WALK?:</t>
-  </si>
-  <si>
-    <t>Sean Murphy</t>
-  </si>
-  <si>
-    <t>10:18 PM</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>267697058</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Parking lot has substantial snow cover.  Temps are dropping and freezing is likely approaching opening time.</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>ANTHONY POLVINO</t>
-  </si>
-  <si>
-    <t>11:17 PM</t>
-  </si>
-  <si>
-    <t>267698989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work Summary: 8 dump trucks including 1 tri axle and 3 loaders. Each truck did a min of 18 loads. </t>
-  </si>
-  <si>
-    <t>EUNSUN ALEXANDER</t>
-  </si>
-  <si>
-    <t>1/27/2024</t>
-  </si>
-  <si>
-    <t>12:04 AM</t>
-  </si>
-  <si>
-    <t>1284</t>
-  </si>
-  <si>
-    <t>MONROE</t>
-  </si>
-  <si>
-    <t>267710491</t>
-  </si>
-  <si>
-    <t>12:14 AM</t>
-  </si>
-  <si>
-    <t>267730646</t>
-  </si>
-  <si>
-    <t>12:16 AM</t>
-  </si>
-  <si>
-    <t>267730655</t>
-  </si>
-  <si>
-    <t>1/28/2024</t>
-  </si>
-  <si>
-    <t>08:08 AM</t>
-  </si>
-  <si>
-    <t>2683</t>
-  </si>
-  <si>
-    <t>PITTSFIELD</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>267774711</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Renee M./CXM/503 called in to create a WO to salt the parking lot.</t>
-  </si>
-  <si>
-    <t>Renee M./CXM/503</t>
-  </si>
-  <si>
-    <t>08:32 AM</t>
-  </si>
-  <si>
-    <t>6218</t>
-  </si>
-  <si>
-    <t>NEW HARTFORD</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>267775137</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Parking lots are icing up and causing slippery conditions. Need areas salted and sanded to reduce chance of injury to associates and customers.</t>
-  </si>
-  <si>
-    <t>OSCAR SUAREZ</t>
-  </si>
-  <si>
-    <t>10:20 AM</t>
-  </si>
-  <si>
-    <t>6229</t>
-  </si>
-  <si>
-    <t>BRISTOL</t>
-  </si>
-  <si>
-    <t>267777566</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Jason N./ASM/501 called in to create a WO to remove snow and salt the parking lot.</t>
-  </si>
-  <si>
-    <t>Jason N./ASM/501</t>
-  </si>
-  <si>
-    <t>10:48 AM</t>
-  </si>
-  <si>
-    <t>8923</t>
-  </si>
-  <si>
-    <t>WESTFIELD</t>
-  </si>
-  <si>
-    <t>267778266</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Katy L./CXM/503 called in to create a WO to salt the parking lot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed </t>
-  </si>
-  <si>
-    <t>Katy L./CXM/503</t>
-  </si>
-  <si>
-    <t>11:12 AM</t>
-  </si>
-  <si>
-    <t>2651</t>
-  </si>
-  <si>
-    <t>BELLINGHAM</t>
-  </si>
-  <si>
-    <t>267778966</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / parking lot needs to be salted. We are getting complaints that it is extremely slippery</t>
-  </si>
-  <si>
-    <t>completed with check in on PM work order</t>
-  </si>
-  <si>
-    <t>WENDY PUKANASIS</t>
-  </si>
-  <si>
-    <t>12:00 PM</t>
-  </si>
-  <si>
-    <t>2614</t>
-  </si>
-  <si>
-    <t>READING</t>
-  </si>
-  <si>
-    <t>267780278</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Lisa Didi, SM, 315, called to request someone salt the parking lot</t>
-  </si>
-  <si>
-    <t>36F and rain. Will check back later</t>
-  </si>
-  <si>
-    <t>Lisa Didi, SM, 315</t>
-  </si>
-  <si>
-    <t>12:12 PM</t>
-  </si>
-  <si>
-    <t>4286</t>
-  </si>
-  <si>
-    <t>JOHNSTON</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>267780579</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Got a quik hit of snow...parking lot is slush and roughly 1-1.5" snow need scrape and ice melt.</t>
-  </si>
-  <si>
-    <t>Site has been  checked</t>
-  </si>
-  <si>
-    <t>JOHN WELCH</t>
-  </si>
-  <si>
-    <t>02:37 PM</t>
-  </si>
-  <si>
-    <t>6168</t>
-  </si>
-  <si>
-    <t>BATAVIA</t>
-  </si>
-  <si>
-    <t>267784686</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / snow removal and salt needed</t>
-  </si>
-  <si>
-    <t>SP already salted, will check in on PM WO.</t>
-  </si>
-  <si>
-    <t>Erin ShaughnessY Phone # 5858130144</t>
-  </si>
-  <si>
-    <t>05:10 PM</t>
-  </si>
-  <si>
-    <t>2684</t>
-  </si>
-  <si>
-    <t>WORCESTER</t>
-  </si>
-  <si>
-    <t>267788675</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Camden G./CXM/502 called in to create a WO to have the parking lot salted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treated </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Camden G./CXM/502</t>
-  </si>
-  <si>
-    <t>05:18 PM</t>
-  </si>
-  <si>
-    <t>267788885</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Multiple areas with snow left high, associates car was blocked in and had to be shoveled out.</t>
-  </si>
-  <si>
-    <t>WILLIAM KING</t>
-  </si>
-  <si>
-    <t>05:24 PM</t>
-  </si>
-  <si>
-    <t>267788992</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Parking lot, lanes, and back of building need salting. slush beginning to become slick</t>
-  </si>
-  <si>
-    <t>Work Summary: Complete parking lot inspection found no slush only water current temperature 34° above freezing no slippery conditions no action needed at this time lot in very good standings. No slippery conditions will recheck in the overnight and salt if needed. No further action recorded this time.</t>
-  </si>
-  <si>
-    <t>JACOB GORKO</t>
-  </si>
-  <si>
-    <t>06:59 PM</t>
-  </si>
-  <si>
-    <t>267790979</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Karen OPM called to create a WO to plow the parking lot an salt as well the parking lot an the main entrance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lot was treated over night </t>
-  </si>
-  <si>
-    <t>Karen M ASN 502</t>
-  </si>
-  <si>
-    <t>07:49 PM</t>
-  </si>
-  <si>
-    <t>2624</t>
-  </si>
-  <si>
-    <t>OXFORD</t>
-  </si>
-  <si>
-    <t>267791907</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Ken called to create a WO to salt the parking lot and the main entrance it's pretty icy.</t>
-  </si>
-  <si>
-    <t>Work Summary: plow sleet. salt</t>
-  </si>
-  <si>
-    <t>Ken L ASM 503</t>
-  </si>
-  <si>
-    <t>1/29/2024</t>
-  </si>
-  <si>
-    <t>04:54 AM</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>CICERO</t>
-  </si>
-  <si>
-    <t>267823963</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / lot very icy. Needs salt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work Summary: Cleaned and salted parking lot for ice no snow accumulation currently down to black top started 515am ended 548am </t>
-  </si>
-  <si>
-    <t>MICHAEL HEPFER</t>
-  </si>
-  <si>
-    <t>04:58 AM</t>
-  </si>
-  <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>EAST SYRACUSE</t>
-  </si>
-  <si>
-    <t>267824039</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / parking lot is covered with ice, need salt service asap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work Summary: Cleaned and scraped parking lot salted parking lot and loading docks it did have heavy ice now currently down to blacktop </t>
-  </si>
-  <si>
-    <t>KRISTOPHER MILLER</t>
-  </si>
-  <si>
-    <t>05:16 AM</t>
-  </si>
-  <si>
-    <t>2623</t>
+    <t>Completed with check in on PM WO</t>
+  </si>
+  <si>
+    <t>CARRIE THORPE Phone # 8027866900</t>
+  </si>
+  <si>
+    <t>2/16/2024</t>
+  </si>
+  <si>
+    <t>03:40 AM</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>JOHNSON CITY</t>
+  </si>
+  <si>
+    <t>269554750</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / mark nom requested the parking lot to be salted</t>
+  </si>
+  <si>
+    <t>mark manni//299//nom</t>
+  </si>
+  <si>
+    <t>05:37 AM</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>QUINCY</t>
+  </si>
+  <si>
+    <t>269556830</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Ice storm last night, parking lot is unsafe this morning.  Need salt/sand over entire lot, including backpad for forklifts to be able to operate.</t>
+  </si>
+  <si>
+    <t>Work Summary: Sanded</t>
+  </si>
+  <si>
+    <t>RYAN FLANDERS</t>
+  </si>
+  <si>
+    <t>05:49 AM</t>
+  </si>
+  <si>
+    <t>1268</t>
+  </si>
+  <si>
+    <t>LOCKPORT</t>
+  </si>
+  <si>
+    <t>269557075</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / parking lot is icey and needs to be salted</t>
+  </si>
+  <si>
+    <t>Site was salted at 5 am, sp checked in on monthly pm</t>
+  </si>
+  <si>
+    <t>LILI PARRY Phone # 7164394898</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>AMHERST</t>
+  </si>
+  <si>
+    <t>269557117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUEST SERVICE / Megan Frawley/NRM//503
+Called in to place WO for snow removal and salting parking lot</t>
+  </si>
+  <si>
+    <t>Megan Frawley/NRM//503</t>
+  </si>
+  <si>
+    <t>05:58 AM</t>
+  </si>
+  <si>
+    <t>269557246</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Need salting of Parking lot ASAP, parking lot is extremely icy.</t>
+  </si>
+  <si>
+    <t>TYLER LYFORD</t>
+  </si>
+  <si>
+    <t>06:36 AM</t>
+  </si>
+  <si>
+    <t>269558098</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / Parking lot is very icy and needs salt down. Slippery and Icy</t>
+  </si>
+  <si>
+    <t>Work Summary: nothing needed</t>
+  </si>
+  <si>
+    <t>07:15 AM</t>
+  </si>
+  <si>
+    <t>2668</t>
+  </si>
+  <si>
+    <t>TEWKSBURY</t>
+  </si>
+  <si>
+    <t>269559100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUEST SERVICE / Erick P. /ASM/502
+Called in to place WO for salting parking lot</t>
+  </si>
+  <si>
+    <t>Erick P. /ASM/502</t>
+  </si>
+  <si>
+    <t>2663</t>
   </si>
   <si>
     <t>DANVERS</t>
   </si>
   <si>
-    <t>267824358</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / exterior snow plowing</t>
-  </si>
-  <si>
-    <t>ERIC LAGERBLADE</t>
-  </si>
-  <si>
-    <t>06:03 AM</t>
-  </si>
-  <si>
-    <t>1239</t>
-  </si>
-  <si>
-    <t>SCHENECTADY</t>
-  </si>
-  <si>
-    <t>267825350</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / back perimiter snow plowwing cannot get to dumpster with piles</t>
-  </si>
-  <si>
-    <t>TARA CAMERON</t>
-  </si>
-  <si>
-    <t>07:22 AM</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>SOUTH PORTLAND</t>
-  </si>
-  <si>
-    <t>267827624</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Need parking lot salted</t>
-  </si>
-  <si>
-    <t>MARISSA BRETON</t>
-  </si>
-  <si>
-    <t>07:38 AM</t>
-  </si>
-  <si>
-    <t>267828174</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / We need salting. Parking lot is an ice-skating rink. The company is not using any salt and just packing down the snow into an ice layer.</t>
-  </si>
-  <si>
-    <t>ANDREW SHAW Phone# 8023421983</t>
-  </si>
-  <si>
-    <t>08:23 AM</t>
-  </si>
-  <si>
-    <t>267830106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUEST SERVICE / parking lot has not been touched.
-please send truck for plowing and salting as the temp is dropping</t>
-  </si>
-  <si>
-    <t>Work Summary: salted the lot</t>
-  </si>
-  <si>
-    <t>09:22 AM</t>
-  </si>
-  <si>
-    <t>267834064</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Amanda Bolton OM 502 is calling to mention that behind the bilding needs to be salted</t>
-  </si>
-  <si>
-    <t>Amanda Bolton OM 502</t>
-  </si>
-  <si>
-    <t>09:24 AM</t>
-  </si>
-  <si>
-    <t>1269</t>
-  </si>
-  <si>
-    <t>HALFMOON</t>
-  </si>
-  <si>
-    <t>267834185</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / The parking lot needs to be salted</t>
-  </si>
-  <si>
-    <t>TANYA CLARK</t>
-  </si>
-  <si>
-    <t>10:05 AM</t>
-  </si>
-  <si>
-    <t>267838363</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Jeremy Bursty OM 400 called in to create a WO for treat the parking lot with ice due to slippery.</t>
-  </si>
-  <si>
-    <t>no ice found, wet blacktop</t>
-  </si>
-  <si>
-    <t>Jeremy Bursty OM 400</t>
-  </si>
-  <si>
-    <t>11:40 AM</t>
-  </si>
-  <si>
-    <t>2663</t>
-  </si>
-  <si>
-    <t>267846077</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Lida Riddleton CXM 501 called in to create a WO for cloud and salt the parking lot and the back of the store.</t>
-  </si>
-  <si>
-    <t>Lida Riddleton CXM 501</t>
-  </si>
-  <si>
-    <t>03:30 PM</t>
-  </si>
-  <si>
-    <t>3408</t>
-  </si>
-  <si>
-    <t>CLAREMONT</t>
-  </si>
-  <si>
-    <t>267870213</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Megan Cobd/OASM/502 call to request a WO to have the snow removed and relocated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we do not think site warrants hauling/relocation yet </t>
-  </si>
-  <si>
-    <t>Megan Cobd/OASM/502</t>
-  </si>
-  <si>
-    <t>07:37 PM</t>
-  </si>
-  <si>
-    <t>267885430</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / parking lot slippery and needs to be salted / brined</t>
-  </si>
-  <si>
-    <t>ARTHUR MACARTHUR</t>
-  </si>
-  <si>
-    <t>1/30/2024</t>
-  </si>
-  <si>
-    <t>1289</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>267911512</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / need salting. freezing mist is making the road and parking lot very icy</t>
-  </si>
-  <si>
-    <t>DAWN KELLER</t>
-  </si>
-  <si>
-    <t>04:59 AM</t>
-  </si>
-  <si>
-    <t>3482</t>
-  </si>
-  <si>
-    <t>MANCHESTER</t>
-  </si>
-  <si>
-    <t>267911538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUEST SERVICE / 
-Stacy C./CXM/Ext.501 called because they need someone to salt the front an back of the parking lot for ice</t>
-  </si>
-  <si>
-    <t>Completed.</t>
-  </si>
-  <si>
-    <t>Stacy C./CXM/Ext.501</t>
-  </si>
-  <si>
-    <t>05:19 AM</t>
-  </si>
-  <si>
-    <t>3485</t>
-  </si>
-  <si>
-    <t>CONCORD</t>
-  </si>
-  <si>
-    <t>267911928</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Ken CXM is calling to get entire parking lot salted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken hugh CXM 503 </t>
-  </si>
-  <si>
-    <t>05:23 AM</t>
-  </si>
-  <si>
-    <t>267911997</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / parking lot front, back and sides are very icy we need to be salted</t>
-  </si>
-  <si>
-    <t>06:17 AM</t>
-  </si>
-  <si>
-    <t>2672</t>
-  </si>
-  <si>
-    <t>SHREWSBURY</t>
-  </si>
-  <si>
-    <t>267912965</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / parking lot needs to be salted black ice</t>
-  </si>
-  <si>
-    <t>SUSAN PERRON</t>
-  </si>
-  <si>
-    <t>07:06 AM</t>
-  </si>
-  <si>
-    <t>267914056</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Fushein Shia/ASM/461 wanted a WO to salt the parking lot.</t>
-  </si>
-  <si>
-    <t>Fushein Shia/ASM/461</t>
-  </si>
-  <si>
-    <t>08:19 AM</t>
-  </si>
-  <si>
-    <t>2671</t>
-  </si>
-  <si>
-    <t>AVON</t>
-  </si>
-  <si>
-    <t>267918127</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / please send someone out to salt/sand parking lot. It's slippery</t>
-  </si>
-  <si>
-    <t>PAULA MCMANUS</t>
-  </si>
-  <si>
-    <t>08:31 AM</t>
-  </si>
-  <si>
-    <t>6172</t>
-  </si>
-  <si>
-    <t>MONTICELLO</t>
-  </si>
-  <si>
-    <t>267918642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUEST SERVICE / 
-Michelle Egen/ASM/502 called in to create a Wo to have the parking lot, side and back of building salted, there is a large amount of black ice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work Summary: Lot mainly dry and slip ice free
- Icy spots mainly cost by melt and reteeze from snow melting off of Home Depot materials, rental equipment and concrete areas they service, then running onto lot and freezing..</t>
-  </si>
-  <si>
-    <t>Michelle Egen/ASM/502</t>
-  </si>
-  <si>
-    <t>2607</t>
-  </si>
-  <si>
-    <t>MARLBOROUGH</t>
-  </si>
-  <si>
-    <t>267918678</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Parking lot is icy/slippery/hazardous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work Summary: Salted whole parking lot </t>
-  </si>
-  <si>
-    <t>MARY PEGUEROS</t>
-  </si>
-  <si>
-    <t>09:13 AM</t>
-  </si>
-  <si>
-    <t>2650</t>
-  </si>
-  <si>
-    <t>ROCKLAND</t>
-  </si>
-  <si>
-    <t>267921061</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / DJ Walls / ASM / 501 called to request a WO for the parking lot to be salt since there was an Storm this morning and it is quite slippery.</t>
-  </si>
-  <si>
-    <t>DJ Walls / ASM / 501</t>
-  </si>
-  <si>
-    <t>01:53 PM</t>
-  </si>
-  <si>
-    <t>267953769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUEST SERVICE / Patrick Langlois/CXM/501
-Called in to request a WO because need to salt the parking lot</t>
-  </si>
-  <si>
-    <t>Patrick Langlois/CXM/501</t>
-  </si>
-  <si>
-    <t>1/31/2024</t>
-  </si>
-  <si>
-    <t>05:34 AM</t>
-  </si>
-  <si>
-    <t>268075772</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Haidy G/ ASM/452  called to create WO for snow removal and salting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haidy G/ ASM/452  </t>
-  </si>
-  <si>
-    <t>07:03 AM</t>
-  </si>
-  <si>
-    <t>268077415</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / salting reuquested for the parking lot</t>
-  </si>
-  <si>
-    <t>Work Summary: salted lot per work order</t>
-  </si>
-  <si>
-    <t>KATHEREN BLANCHARD Phone # 4135640680</t>
-  </si>
-  <si>
-    <t>2/2/2024</t>
-  </si>
-  <si>
-    <t>11:13 AM</t>
-  </si>
-  <si>
-    <t>268426621</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Creating a new WO according to the note placed by the store  under WO # 267046386. Store Note: "This work order was closed out, but is not completed. The snow piles in front of the fire hydrant behind receiving needs to be cleared." / POSSIBLE RECALL FROM TN #267046386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complete </t>
-  </si>
-  <si>
-    <t>KATHLEEN CONLEY</t>
-  </si>
-  <si>
-    <t>2/3/2024</t>
-  </si>
-  <si>
-    <t>05:22 AM</t>
-  </si>
-  <si>
-    <t>268496033</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / NOASM Keith calls in to request to have the parking lot and perimeter salted</t>
-  </si>
-  <si>
-    <t>Keith Metibier/ NOSAM/ 501</t>
-  </si>
-  <si>
-    <t>2/5/2024</t>
-  </si>
-  <si>
-    <t>08:19 PM</t>
-  </si>
-  <si>
-    <t>268679134</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Cathy Busch CXM 502 called in because they have snow at the middle of the parking lot that need to be removed</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cathy Busch CXM 502</t>
-  </si>
-  <si>
-    <t>2/6/2024</t>
-  </si>
-  <si>
-    <t>08:11 AM</t>
-  </si>
-  <si>
-    <t>2615</t>
-  </si>
-  <si>
-    <t>SEEKONK</t>
-  </si>
-  <si>
-    <t>268703854</t>
-  </si>
-  <si>
-    <t>REQUEST SERVICE / Property manager Richard Jaffe reports the snow is on a lift station and need to be removed as soon as possible.</t>
-  </si>
-  <si>
-    <t>SONCERRAY HILLIARD</t>
+    <t>269559170</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / store is requesting to have back parking lot plowed and salted</t>
+  </si>
+  <si>
+    <t>kaletah//cxm//500</t>
+  </si>
+  <si>
+    <t>07:30 AM</t>
+  </si>
+  <si>
+    <t>2674</t>
+  </si>
+  <si>
+    <t>WALTHAM</t>
+  </si>
+  <si>
+    <t>269559655</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / store had a customer slip and fall due to black ice in the parking lot so the store would need salt service</t>
+  </si>
+  <si>
+    <t>ben//501//cxm</t>
+  </si>
+  <si>
+    <t>3405</t>
+  </si>
+  <si>
+    <t>North Hampton</t>
+  </si>
+  <si>
+    <t>269559722</t>
+  </si>
+  <si>
+    <t>GLENN WILLIAMS</t>
+  </si>
+  <si>
+    <t>09:20 AM</t>
+  </si>
+  <si>
+    <t>6174</t>
+  </si>
+  <si>
+    <t>WATERTOWN</t>
+  </si>
+  <si>
+    <t>269565232</t>
+  </si>
+  <si>
+    <t>REQUEST SERVICE / We need the receiving docks cleaned out. Drivers are worried about backing in and getting stuck</t>
+  </si>
+  <si>
+    <t>HERBERT BELL Phone# 3157888539</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1979,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L90"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1473,15 +2017,15 @@
         <v>10</v>
       </c>
       <c r="L1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1490,25 +2034,25 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1516,37 +2060,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -1554,10 +2098,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1566,74 +2110,74 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="b">
         <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1642,63 +2186,63 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1706,10 +2250,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1718,36 +2262,36 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1756,25 +2300,25 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1782,10 +2326,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1794,25 +2338,25 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1820,48 +2364,48 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="b">
         <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1870,25 +2414,25 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1896,37 +2440,37 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1934,37 +2478,37 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1972,10 +2516,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1984,25 +2528,25 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -2010,10 +2554,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2022,25 +2566,25 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -2048,10 +2592,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2060,25 +2604,25 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -2086,10 +2630,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2098,36 +2642,36 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2136,25 +2680,25 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -2162,10 +2706,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -2174,36 +2718,36 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2212,25 +2756,25 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -2238,10 +2782,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2250,101 +2794,101 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="K24" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2352,37 +2896,37 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="J25" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K25" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2390,37 +2934,37 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -2428,151 +2972,151 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="I28" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="J28" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="K28" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="I29" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="I30" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="J30" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -2580,37 +3124,37 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="I31" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J31" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
@@ -2618,37 +3162,37 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -2656,75 +3200,75 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="I33" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="K33" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F34" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
@@ -2732,113 +3276,113 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J35" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="K35" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J36" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="K36" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="I37" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="J37" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
@@ -2846,37 +3390,37 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="I38" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J38" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -2884,189 +3428,189 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="F39" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="I39" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J39" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="K39" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="I40" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="J40" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K40" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="F41" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="I41" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="K41" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="F42" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G42" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="I42" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="J42" t="s">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="I43" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="J43" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
@@ -3074,10 +3618,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -3086,25 +3630,25 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="F44" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="I44" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J44" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
@@ -3112,10 +3656,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3124,25 +3668,25 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="G45" t="s">
         <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="I45" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J45" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K45" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -3150,10 +3694,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3162,25 +3706,25 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="I46" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="J46" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="K46" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -3188,10 +3732,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3200,36 +3744,36 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="F47" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="I47" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="J47" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="K47" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="L47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3238,25 +3782,25 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I48" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="K48" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="L48" t="b">
         <v>1</v>
@@ -3264,10 +3808,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3276,25 +3820,25 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>310</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="G49" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="I49" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
@@ -3302,10 +3846,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3314,36 +3858,36 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="F50" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G50" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="H50" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="I50" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="J50" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="K50" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3352,25 +3896,25 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="I51" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="J51" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="K51" t="s">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="L51" t="b">
         <v>1</v>
@@ -3378,10 +3922,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B52" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -3390,36 +3934,36 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="F52" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G52" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="H52" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="J52" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K52" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3428,63 +3972,63 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="F53" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="G53" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="J53" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="K53" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="I54" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="J54" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="L54" t="b">
         <v>1</v>
@@ -3492,10 +4036,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -3504,25 +4048,25 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="G55" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="I55" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J55" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
@@ -3530,10 +4074,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -3542,36 +4086,36 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>352</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="G56" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="I56" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="J56" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="K56" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="L56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -3580,36 +4124,36 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="F57" t="s">
-        <v>183</v>
+        <v>360</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="I57" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="J57" t="s">
-        <v>327</v>
+        <v>73</v>
       </c>
       <c r="K57" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="L57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="B58" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -3618,25 +4162,25 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>366</v>
       </c>
       <c r="G58" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="I58" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="J58" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K58" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
@@ -3644,48 +4188,48 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="F59" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="I59" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="J59" t="s">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="K59" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="L59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -3694,28 +4238,1168 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F60" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G60" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="I60" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="J60" t="s">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="K60" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="L60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61" t="s">
+        <v>378</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>379</v>
+      </c>
+      <c r="I61" t="s">
+        <v>380</v>
+      </c>
+      <c r="J61" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61" t="s">
+        <v>381</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" t="s">
+        <v>382</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>383</v>
+      </c>
+      <c r="F62" t="s">
+        <v>384</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>385</v>
+      </c>
+      <c r="I62" t="s">
+        <v>386</v>
+      </c>
+      <c r="J62" t="s">
+        <v>73</v>
+      </c>
+      <c r="K62" t="s">
+        <v>387</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>279</v>
+      </c>
+      <c r="B63" t="s">
+        <v>388</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>389</v>
+      </c>
+      <c r="F63" t="s">
+        <v>390</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s">
+        <v>391</v>
+      </c>
+      <c r="I63" t="s">
+        <v>392</v>
+      </c>
+      <c r="J63" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s">
+        <v>393</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" t="s">
+        <v>394</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>395</v>
+      </c>
+      <c r="F64" t="s">
+        <v>396</v>
+      </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s">
+        <v>397</v>
+      </c>
+      <c r="I64" t="s">
+        <v>398</v>
+      </c>
+      <c r="J64" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64" t="s">
+        <v>399</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" t="s">
+        <v>400</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>401</v>
+      </c>
+      <c r="I65" t="s">
+        <v>402</v>
+      </c>
+      <c r="J65" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65" t="s">
+        <v>403</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" t="s">
+        <v>404</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>405</v>
+      </c>
+      <c r="I66" t="s">
+        <v>406</v>
+      </c>
+      <c r="J66" t="s">
+        <v>73</v>
+      </c>
+      <c r="K66" t="s">
+        <v>407</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" t="s">
+        <v>408</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>409</v>
+      </c>
+      <c r="I67" t="s">
+        <v>410</v>
+      </c>
+      <c r="J67" t="s">
+        <v>73</v>
+      </c>
+      <c r="K67" t="s">
+        <v>411</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>371</v>
+      </c>
+      <c r="F68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>413</v>
+      </c>
+      <c r="I68" t="s">
+        <v>414</v>
+      </c>
+      <c r="J68" t="s">
+        <v>73</v>
+      </c>
+      <c r="K68" t="s">
+        <v>415</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" t="s">
+        <v>416</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s">
+        <v>417</v>
+      </c>
+      <c r="I69" t="s">
+        <v>418</v>
+      </c>
+      <c r="J69" t="s">
+        <v>73</v>
+      </c>
+      <c r="K69" t="s">
+        <v>419</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" t="s">
+        <v>420</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>335</v>
+      </c>
+      <c r="F70" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>421</v>
+      </c>
+      <c r="I70" t="s">
+        <v>422</v>
+      </c>
+      <c r="J70" t="s">
+        <v>423</v>
+      </c>
+      <c r="K70" t="s">
+        <v>424</v>
+      </c>
+      <c r="L70" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" t="s">
+        <v>425</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>426</v>
+      </c>
+      <c r="F71" t="s">
+        <v>427</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>428</v>
+      </c>
+      <c r="I71" t="s">
+        <v>429</v>
+      </c>
+      <c r="J71" t="s">
+        <v>423</v>
+      </c>
+      <c r="K71" t="s">
+        <v>430</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72" t="s">
+        <v>431</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>432</v>
+      </c>
+      <c r="I72" t="s">
+        <v>433</v>
+      </c>
+      <c r="J72" t="s">
+        <v>73</v>
+      </c>
+      <c r="K72" t="s">
+        <v>434</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" t="s">
+        <v>435</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>436</v>
+      </c>
+      <c r="I73" t="s">
+        <v>437</v>
+      </c>
+      <c r="J73" t="s">
+        <v>423</v>
+      </c>
+      <c r="K73" t="s">
+        <v>438</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" t="s">
+        <v>439</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>395</v>
+      </c>
+      <c r="F74" t="s">
+        <v>396</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s">
+        <v>440</v>
+      </c>
+      <c r="I74" t="s">
+        <v>441</v>
+      </c>
+      <c r="J74" t="s">
+        <v>73</v>
+      </c>
+      <c r="K74" t="s">
+        <v>442</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75" t="s">
+        <v>443</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" t="s">
+        <v>144</v>
+      </c>
+      <c r="G75" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" t="s">
+        <v>444</v>
+      </c>
+      <c r="I75" t="s">
+        <v>445</v>
+      </c>
+      <c r="J75" t="s">
+        <v>93</v>
+      </c>
+      <c r="K75" t="s">
+        <v>446</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>447</v>
+      </c>
+      <c r="B76" t="s">
+        <v>448</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>365</v>
+      </c>
+      <c r="F76" t="s">
+        <v>366</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>449</v>
+      </c>
+      <c r="I76" t="s">
+        <v>450</v>
+      </c>
+      <c r="J76" t="s">
+        <v>53</v>
+      </c>
+      <c r="K76" t="s">
+        <v>369</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>447</v>
+      </c>
+      <c r="B77" t="s">
+        <v>451</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>452</v>
+      </c>
+      <c r="I77" t="s">
+        <v>453</v>
+      </c>
+      <c r="J77" t="s">
+        <v>454</v>
+      </c>
+      <c r="K77" t="s">
+        <v>455</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>447</v>
+      </c>
+      <c r="B78" t="s">
+        <v>456</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" t="s">
+        <v>199</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>457</v>
+      </c>
+      <c r="I78" t="s">
+        <v>458</v>
+      </c>
+      <c r="J78" t="s">
+        <v>73</v>
+      </c>
+      <c r="K78" t="s">
+        <v>459</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>447</v>
+      </c>
+      <c r="B79" t="s">
+        <v>460</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>461</v>
+      </c>
+      <c r="F79" t="s">
+        <v>462</v>
+      </c>
+      <c r="G79" t="s">
+        <v>318</v>
+      </c>
+      <c r="H79" t="s">
+        <v>463</v>
+      </c>
+      <c r="I79" t="s">
+        <v>464</v>
+      </c>
+      <c r="J79" t="s">
+        <v>465</v>
+      </c>
+      <c r="K79" t="s">
+        <v>466</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>467</v>
+      </c>
+      <c r="B80" t="s">
+        <v>468</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>469</v>
+      </c>
+      <c r="F80" t="s">
+        <v>470</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>471</v>
+      </c>
+      <c r="I80" t="s">
+        <v>472</v>
+      </c>
+      <c r="J80" t="s">
+        <v>73</v>
+      </c>
+      <c r="K80" t="s">
+        <v>473</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>467</v>
+      </c>
+      <c r="B81" t="s">
+        <v>474</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>475</v>
+      </c>
+      <c r="F81" t="s">
+        <v>476</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>477</v>
+      </c>
+      <c r="I81" t="s">
+        <v>478</v>
+      </c>
+      <c r="J81" t="s">
+        <v>479</v>
+      </c>
+      <c r="K81" t="s">
+        <v>480</v>
+      </c>
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>467</v>
+      </c>
+      <c r="B82" t="s">
+        <v>481</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>482</v>
+      </c>
+      <c r="F82" t="s">
+        <v>483</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" t="s">
+        <v>484</v>
+      </c>
+      <c r="I82" t="s">
+        <v>485</v>
+      </c>
+      <c r="J82" t="s">
+        <v>486</v>
+      </c>
+      <c r="K82" t="s">
+        <v>487</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>467</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>488</v>
+      </c>
+      <c r="F83" t="s">
+        <v>489</v>
+      </c>
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" t="s">
+        <v>490</v>
+      </c>
+      <c r="I83" t="s">
+        <v>491</v>
+      </c>
+      <c r="J83" t="s">
+        <v>73</v>
+      </c>
+      <c r="K83" t="s">
+        <v>492</v>
+      </c>
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>467</v>
+      </c>
+      <c r="B84" t="s">
+        <v>493</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>494</v>
+      </c>
+      <c r="I84" t="s">
+        <v>495</v>
+      </c>
+      <c r="J84" t="s">
+        <v>73</v>
+      </c>
+      <c r="K84" t="s">
+        <v>496</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>467</v>
+      </c>
+      <c r="B85" t="s">
+        <v>497</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s">
+        <v>498</v>
+      </c>
+      <c r="I85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J85" t="s">
+        <v>500</v>
+      </c>
+      <c r="K85" t="s">
+        <v>147</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>467</v>
+      </c>
+      <c r="B86" t="s">
+        <v>501</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>502</v>
+      </c>
+      <c r="F86" t="s">
+        <v>503</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>504</v>
+      </c>
+      <c r="I86" t="s">
+        <v>505</v>
+      </c>
+      <c r="J86" t="s">
+        <v>73</v>
+      </c>
+      <c r="K86" t="s">
+        <v>506</v>
+      </c>
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>467</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>507</v>
+      </c>
+      <c r="F87" t="s">
+        <v>508</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>509</v>
+      </c>
+      <c r="I87" t="s">
+        <v>510</v>
+      </c>
+      <c r="J87" t="s">
+        <v>73</v>
+      </c>
+      <c r="K87" t="s">
+        <v>511</v>
+      </c>
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>467</v>
+      </c>
+      <c r="B88" t="s">
+        <v>512</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>513</v>
+      </c>
+      <c r="F88" t="s">
+        <v>514</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>515</v>
+      </c>
+      <c r="I88" t="s">
+        <v>516</v>
+      </c>
+      <c r="J88" t="s">
+        <v>454</v>
+      </c>
+      <c r="K88" t="s">
+        <v>517</v>
+      </c>
+      <c r="L88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>467</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>518</v>
+      </c>
+      <c r="F89" t="s">
+        <v>519</v>
+      </c>
+      <c r="G89" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s">
+        <v>520</v>
+      </c>
+      <c r="I89" t="s">
+        <v>231</v>
+      </c>
+      <c r="J89" t="s">
+        <v>73</v>
+      </c>
+      <c r="K89" t="s">
+        <v>521</v>
+      </c>
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>467</v>
+      </c>
+      <c r="B90" t="s">
+        <v>522</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>523</v>
+      </c>
+      <c r="F90" t="s">
+        <v>524</v>
+      </c>
+      <c r="G90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" t="s">
+        <v>525</v>
+      </c>
+      <c r="I90" t="s">
+        <v>526</v>
+      </c>
+      <c r="J90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K90" t="s">
+        <v>527</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
